--- a/06.project/data/rawdata/주유소/서구_주유소_현황.xlsx
+++ b/06.project/data/rawdata/주유소/서구_주유소_현황.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="14355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="석유판매업대장 현황" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,17 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
-  <si>
-    <t>석유판매업대장 현황</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>사업구분</t>
   </si>
   <si>
-    <t>영업소소재지(도로명)</t>
-  </si>
-  <si>
     <t>상호</t>
   </si>
   <si>
@@ -153,14 +147,18 @@
   </si>
   <si>
     <t>051 255 1667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,15 +171,6 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -229,11 +218,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -302,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,7 +323,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,213 +500,208 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="41.25" customWidth="1"/>
-    <col min="3" max="3" width="32.25" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="8.8984375" customWidth="1"/>
+    <col min="2" max="2" width="32.19921875" customWidth="1"/>
+    <col min="3" max="3" width="41.19921875" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
